--- a/1.xlsx
+++ b/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felavsky\Desktop\Production\projects\WORKSHOPS\Practicing Graph Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felavsky\Desktop\Production\WORKSHOPS\intro to viz\Shorter Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
     <t>Binning, Subsetting, Scoping</t>
   </si>
   <si>
-    <t>Percentage of Poor Usage</t>
+    <t>Poor Usage of Characteristics in Graphs</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Percentage of Poor Usage</c:v>
+                  <c:v>Poor Usage of Characteristics in Graphs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
